--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnc-Itga7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnc-Itga7.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H2">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I2">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J2">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.349417</v>
+        <v>1.743137</v>
       </c>
       <c r="N2">
-        <v>10.048251</v>
+        <v>5.229411</v>
       </c>
       <c r="O2">
-        <v>0.0602955800561437</v>
+        <v>0.03144673183548247</v>
       </c>
       <c r="P2">
-        <v>0.0602955800561437</v>
+        <v>0.03144673183548247</v>
       </c>
       <c r="Q2">
-        <v>4.831103064179334</v>
+        <v>0.2346268212456667</v>
       </c>
       <c r="R2">
-        <v>43.479927577614</v>
+        <v>2.111641391211</v>
       </c>
       <c r="S2">
-        <v>0.002123636869548938</v>
+        <v>0.0003034941166453377</v>
       </c>
       <c r="T2">
-        <v>0.002123636869548938</v>
+        <v>0.0003034941166453377</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H3">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I3">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J3">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.282876</v>
       </c>
       <c r="N3">
-        <v>3.848628000000001</v>
+        <v>3.848628</v>
       </c>
       <c r="O3">
-        <v>0.023094094452887</v>
+        <v>0.02314348071905789</v>
       </c>
       <c r="P3">
-        <v>0.023094094452887</v>
+        <v>0.02314348071905789</v>
       </c>
       <c r="Q3">
-        <v>1.850383566621333</v>
+        <v>0.1726755372253334</v>
       </c>
       <c r="R3">
-        <v>16.653452099592</v>
+        <v>1.554079835028</v>
       </c>
       <c r="S3">
-        <v>0.0008133841718303405</v>
+        <v>0.0002233589892162832</v>
       </c>
       <c r="T3">
-        <v>0.0008133841718303405</v>
+        <v>0.0002233589892162832</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H4">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I4">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J4">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.917666</v>
+        <v>52.405407</v>
       </c>
       <c r="N4">
-        <v>152.752998</v>
+        <v>157.216221</v>
       </c>
       <c r="O4">
-        <v>0.9166103254909692</v>
+        <v>0.9454097874454597</v>
       </c>
       <c r="P4">
-        <v>0.9166103254909692</v>
+        <v>0.9454097874454597</v>
       </c>
       <c r="Q4">
-        <v>73.44218179864133</v>
+        <v>7.053785250669002</v>
       </c>
       <c r="R4">
-        <v>660.9796361877719</v>
+        <v>63.48406725602101</v>
       </c>
       <c r="S4">
-        <v>0.03228341912308273</v>
+        <v>0.009124201198703484</v>
       </c>
       <c r="T4">
-        <v>0.03228341912308273</v>
+        <v>0.009124201198703484</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>33.994191</v>
       </c>
       <c r="I5">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J5">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.349417</v>
+        <v>1.743137</v>
       </c>
       <c r="N5">
-        <v>10.048251</v>
+        <v>5.229411</v>
       </c>
       <c r="O5">
-        <v>0.0602955800561437</v>
+        <v>0.03144673183548247</v>
       </c>
       <c r="P5">
-        <v>0.0602955800561437</v>
+        <v>0.03144673183548247</v>
       </c>
       <c r="Q5">
-        <v>37.95357374554901</v>
+        <v>19.752177372389</v>
       </c>
       <c r="R5">
-        <v>341.582163709941</v>
+        <v>177.769596351501</v>
       </c>
       <c r="S5">
-        <v>0.01668347941794201</v>
+        <v>0.0255498053957714</v>
       </c>
       <c r="T5">
-        <v>0.016683479417942</v>
+        <v>0.0255498053957714</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>33.994191</v>
       </c>
       <c r="I6">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J6">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>1.282876</v>
       </c>
       <c r="N6">
-        <v>3.848628000000001</v>
+        <v>3.848628</v>
       </c>
       <c r="O6">
-        <v>0.023094094452887</v>
+        <v>0.02314348071905789</v>
       </c>
       <c r="P6">
-        <v>0.023094094452887</v>
+        <v>0.02314348071905789</v>
       </c>
       <c r="Q6">
         <v>14.536777257772</v>
@@ -818,10 +818,10 @@
         <v>130.830995319948</v>
       </c>
       <c r="S6">
-        <v>0.006390018126071424</v>
+        <v>0.01880358924565633</v>
       </c>
       <c r="T6">
-        <v>0.006390018126071423</v>
+        <v>0.01880358924565633</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>33.994191</v>
       </c>
       <c r="I7">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J7">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.917666</v>
+        <v>52.405407</v>
       </c>
       <c r="N7">
-        <v>152.752998</v>
+        <v>157.216221</v>
       </c>
       <c r="O7">
-        <v>0.9166103254909692</v>
+        <v>0.9454097874454597</v>
       </c>
       <c r="P7">
-        <v>0.9166103254909692</v>
+        <v>0.9454097874454597</v>
       </c>
       <c r="Q7">
-        <v>576.968287759402</v>
+        <v>593.8264716635791</v>
       </c>
       <c r="R7">
-        <v>5192.714589834618</v>
+        <v>5344.438244972212</v>
       </c>
       <c r="S7">
-        <v>0.2536214011932958</v>
+        <v>0.7681254832730854</v>
       </c>
       <c r="T7">
-        <v>0.2536214011932958</v>
+        <v>0.7681254832730855</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H8">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I8">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J8">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.349417</v>
+        <v>1.743137</v>
       </c>
       <c r="N8">
-        <v>10.048251</v>
+        <v>5.229411</v>
       </c>
       <c r="O8">
-        <v>0.0602955800561437</v>
+        <v>0.03144673183548247</v>
       </c>
       <c r="P8">
-        <v>0.0602955800561437</v>
+        <v>0.03144673183548247</v>
       </c>
       <c r="Q8">
-        <v>94.38291796252534</v>
+        <v>4.3241999559</v>
       </c>
       <c r="R8">
-        <v>849.446261662728</v>
+        <v>38.9177996031</v>
       </c>
       <c r="S8">
-        <v>0.04148846376865276</v>
+        <v>0.005593432323065736</v>
       </c>
       <c r="T8">
-        <v>0.04148846376865275</v>
+        <v>0.005593432323065736</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H9">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I9">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J9">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>1.282876</v>
       </c>
       <c r="N9">
-        <v>3.848628000000001</v>
+        <v>3.848628</v>
       </c>
       <c r="O9">
-        <v>0.023094094452887</v>
+        <v>0.02314348071905789</v>
       </c>
       <c r="P9">
-        <v>0.023094094452887</v>
+        <v>0.02314348071905789</v>
       </c>
       <c r="Q9">
-        <v>36.15004648990934</v>
+        <v>3.1824304932</v>
       </c>
       <c r="R9">
-        <v>325.350418409184</v>
+        <v>28.6418744388</v>
       </c>
       <c r="S9">
-        <v>0.01589069215498523</v>
+        <v>0.004116532484185282</v>
       </c>
       <c r="T9">
-        <v>0.01589069215498523</v>
+        <v>0.004116532484185281</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H10">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I10">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J10">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.917666</v>
+        <v>52.405407</v>
       </c>
       <c r="N10">
-        <v>152.752998</v>
+        <v>157.216221</v>
       </c>
       <c r="O10">
-        <v>0.9166103254909692</v>
+        <v>0.9454097874454597</v>
       </c>
       <c r="P10">
-        <v>0.9166103254909692</v>
+        <v>0.9454097874454597</v>
       </c>
       <c r="Q10">
-        <v>1434.804293678949</v>
+        <v>130.0020931449</v>
       </c>
       <c r="R10">
-        <v>12913.23864311054</v>
+        <v>1170.0188383041</v>
       </c>
       <c r="S10">
-        <v>0.6307055051745907</v>
+        <v>0.1681601029736707</v>
       </c>
       <c r="T10">
-        <v>0.6307055051745906</v>
+        <v>0.1681601029736707</v>
       </c>
     </row>
   </sheetData>
